--- a/Data/delCmp.xlsx
+++ b/Data/delCmp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documents\MATLAB\power\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PowerFlow\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="10380" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="ieee14" sheetId="1" r:id="rId1"/>
@@ -358,24 +358,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L100"/>
+  <dimension ref="E1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L14"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A64" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>7.5213468431187203E-2</v>
-      </c>
-      <c r="B1">
-        <v>4</v>
-      </c>
-      <c r="C1">
-        <v>7.5332301976226951E-2</v>
-      </c>
+    <row r="1" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E1" s="1">
         <v>1</v>
       </c>
@@ -395,16 +386,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9.5277313447936759E-2</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>9.4818188223590477E-2</v>
-      </c>
+    <row r="2" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -424,16 +406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.17277263146417876</v>
-      </c>
-      <c r="B3">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>0.17285711424116654</v>
-      </c>
+    <row r="3" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E3" s="1">
         <v>2</v>
       </c>
@@ -453,16 +426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.12294606022377744</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.12251589546080344</v>
-      </c>
+    <row r="4" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <v>2</v>
       </c>
@@ -482,16 +446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>7.4819379299229188E-2</v>
-      </c>
-      <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>7.5217006116380339E-2</v>
-      </c>
+    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <v>2</v>
       </c>
@@ -511,16 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.12655040602810733</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>0.12646210447648543</v>
-      </c>
+    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <v>3</v>
       </c>
@@ -540,16 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.10578157640933815</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>0.10562079575219994</v>
-      </c>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>4</v>
       </c>
@@ -569,16 +506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.22060667333319151</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>0.22057264405443824</v>
-      </c>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>4</v>
       </c>
@@ -598,16 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8.9311973709513617E-2</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>8.9267053009541811E-2</v>
-      </c>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>4</v>
       </c>
@@ -627,16 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.10389946084311392</v>
-      </c>
-      <c r="B10">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>0.10386923388465256</v>
-      </c>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>5</v>
       </c>
@@ -656,16 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.20423296707915004</v>
-      </c>
-      <c r="B11">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>0.20428478720552151</v>
-      </c>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <v>6</v>
       </c>
@@ -685,16 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6.5194814382036351E-2</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>6.5243525726515331E-2</v>
-      </c>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <v>6</v>
       </c>
@@ -714,16 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>8.5770482989159416E-2</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>8.5774098147330946E-2</v>
-      </c>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <v>6</v>
       </c>
@@ -743,16 +626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.24489298410929708</v>
-      </c>
-      <c r="B14">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>0.24182363791893285</v>
-      </c>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
         <v>7</v>
       </c>
@@ -772,16 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.32301682757934591</v>
-      </c>
-      <c r="B15">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>0.32276806157520244</v>
-      </c>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <v>7</v>
       </c>
@@ -789,16 +654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.15250969546063087</v>
-      </c>
-      <c r="B16">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>0.15296679313432274</v>
-      </c>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <v>9</v>
       </c>
@@ -806,16 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0.18827702540000929</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>0.18856552981798569</v>
-      </c>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <v>9</v>
       </c>
@@ -823,16 +670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.14997460296897352</v>
-      </c>
-      <c r="B18">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>0.14999344268861553</v>
-      </c>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <v>10</v>
       </c>
@@ -840,16 +678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0.25937063915172104</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>0.26179914306448443</v>
-      </c>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
         <v>12</v>
       </c>
@@ -857,901 +686,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5.0712743400143215E-2</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>5.0642921207621573E-2</v>
-      </c>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <v>13</v>
       </c>
       <c r="F20" s="1">
         <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>8.5276241169622471E-2</v>
-      </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>8.522936829916207E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.35396866680214828</v>
-      </c>
-      <c r="B22">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <v>0.35389173188381862</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>7.9686097922967311E-2</v>
-      </c>
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>7.9655377926561799E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.29549424032978217</v>
-      </c>
-      <c r="B24">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>0.29708059662917624</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.13341285945382747</v>
-      </c>
-      <c r="B25">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>0.13333768464466175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.1600220231234574</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>0.16023836213409903</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>9.6554275960678851E-2</v>
-      </c>
-      <c r="B27">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>9.7417835410333761E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>6.011748486150132E-2</v>
-      </c>
-      <c r="B28">
-        <v>17</v>
-      </c>
-      <c r="C28">
-        <v>6.0335150852065034E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0.16120002631603259</v>
-      </c>
-      <c r="B29">
-        <v>17</v>
-      </c>
-      <c r="C29">
-        <v>0.16109450916638382</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>5.2691379522089653E-2</v>
-      </c>
-      <c r="B30">
-        <v>17</v>
-      </c>
-      <c r="C30">
-        <v>5.2762362290461565E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0.14735795061312029</v>
-      </c>
-      <c r="B31">
-        <v>12</v>
-      </c>
-      <c r="C31">
-        <v>0.14696858839878976</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>7.7035794811021463E-2</v>
-      </c>
-      <c r="B32">
-        <v>15</v>
-      </c>
-      <c r="C32">
-        <v>7.7291363941692878E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0.12187663465292892</v>
-      </c>
-      <c r="B33">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>0.12274226445128288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0.20628722265219723</v>
-      </c>
-      <c r="B34">
-        <v>16</v>
-      </c>
-      <c r="C34">
-        <v>0.2060983314107693</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0.11664521626864116</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>0.11675019242792466</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>0.15963707069061817</v>
-      </c>
-      <c r="B36">
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>0.15916749239793618</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>0.33962105928704406</v>
-      </c>
-      <c r="B37">
-        <v>19</v>
-      </c>
-      <c r="C37">
-        <v>0.3400314472094475</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>9.7957422911637643E-2</v>
-      </c>
-      <c r="B38">
-        <v>17</v>
-      </c>
-      <c r="C38">
-        <v>9.912542139177466E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0.10988148233330884</v>
-      </c>
-      <c r="B39">
-        <v>12</v>
-      </c>
-      <c r="C39">
-        <v>0.11004899489168511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>8.0124109271309182E-2</v>
-      </c>
-      <c r="B40">
-        <v>18</v>
-      </c>
-      <c r="C40">
-        <v>8.0154631287574926E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0.2512712862811437</v>
-      </c>
-      <c r="B41">
-        <v>15</v>
-      </c>
-      <c r="C41">
-        <v>0.25145053791559019</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>5.9177389914544742E-2</v>
-      </c>
-      <c r="B42">
-        <v>17</v>
-      </c>
-      <c r="C42">
-        <v>5.9158214358009865E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0.18552448696271664</v>
-      </c>
-      <c r="B43">
-        <v>19</v>
-      </c>
-      <c r="C43">
-        <v>0.18607326234720817</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>3.869206911087917E-2</v>
-      </c>
-      <c r="B44">
-        <v>17</v>
-      </c>
-      <c r="C44">
-        <v>3.8679923257976763E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>0.19639860548248106</v>
-      </c>
-      <c r="B45">
-        <v>9</v>
-      </c>
-      <c r="C45">
-        <v>0.19648288371413</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0.15640050158419663</v>
-      </c>
-      <c r="B46">
-        <v>9</v>
-      </c>
-      <c r="C46">
-        <v>0.15685396865155202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0.13241032087937613</v>
-      </c>
-      <c r="B47">
-        <v>8</v>
-      </c>
-      <c r="C47">
-        <v>0.13227486605711278</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>8.5814074039745503E-2</v>
-      </c>
-      <c r="B48">
-        <v>19</v>
-      </c>
-      <c r="C48">
-        <v>8.5755285700743478E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>0.18424375959119724</v>
-      </c>
-      <c r="B49">
-        <v>15</v>
-      </c>
-      <c r="C49">
-        <v>0.1835895456412879</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>0.12456940109609206</v>
-      </c>
-      <c r="B50">
-        <v>19</v>
-      </c>
-      <c r="C50">
-        <v>0.12460766595824095</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>5.8300547611768089E-2</v>
-      </c>
-      <c r="B51">
-        <v>19</v>
-      </c>
-      <c r="C51">
-        <v>5.8296842324809028E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>0.12960484881240891</v>
-      </c>
-      <c r="B52">
-        <v>19</v>
-      </c>
-      <c r="C52">
-        <v>0.12975670153606331</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>0.20449954266464135</v>
-      </c>
-      <c r="B53">
-        <v>19</v>
-      </c>
-      <c r="C53">
-        <v>0.20540416141034953</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>0.13212698889322935</v>
-      </c>
-      <c r="B54">
-        <v>16</v>
-      </c>
-      <c r="C54">
-        <v>0.13212519668148362</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>8.7135742421946258E-2</v>
-      </c>
-      <c r="B55">
-        <v>9</v>
-      </c>
-      <c r="C55">
-        <v>8.6916398131952205E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>6.2715876369296708E-2</v>
-      </c>
-      <c r="B56">
-        <v>19</v>
-      </c>
-      <c r="C56">
-        <v>6.2880401953099907E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>0.11521721878938683</v>
-      </c>
-      <c r="B57">
-        <v>16</v>
-      </c>
-      <c r="C57">
-        <v>0.11500832730428734</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>6.3082529253311717E-2</v>
-      </c>
-      <c r="B58">
-        <v>9</v>
-      </c>
-      <c r="C58">
-        <v>6.305485725637E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>0.20163756675368766</v>
-      </c>
-      <c r="B59">
-        <v>7</v>
-      </c>
-      <c r="C59">
-        <v>0.20054747310827517</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>0.12341139077010986</v>
-      </c>
-      <c r="B60">
-        <v>19</v>
-      </c>
-      <c r="C60">
-        <v>0.12311798391752898</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>7.7695554036645922E-2</v>
-      </c>
-      <c r="B61">
-        <v>16</v>
-      </c>
-      <c r="C61">
-        <v>7.7639658595639635E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>0.33054851726844175</v>
-      </c>
-      <c r="B62">
-        <v>19</v>
-      </c>
-      <c r="C62">
-        <v>0.33207696917316787</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>0.14911327935957586</v>
-      </c>
-      <c r="B63">
-        <v>5</v>
-      </c>
-      <c r="C63">
-        <v>0.14898816221374209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>0.38304287862511199</v>
-      </c>
-      <c r="B64">
-        <v>13</v>
-      </c>
-      <c r="C64">
-        <v>0.38370791894495043</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>9.5897546687731927E-2</v>
-      </c>
-      <c r="B65">
-        <v>19</v>
-      </c>
-      <c r="C65">
-        <v>9.588660472072158E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>7.9501302476572278E-2</v>
-      </c>
-      <c r="B66">
-        <v>9</v>
-      </c>
-      <c r="C66">
-        <v>7.9415090860256846E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>0.18060397598964731</v>
-      </c>
-      <c r="B67">
-        <v>17</v>
-      </c>
-      <c r="C67">
-        <v>0.17981212024519469</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>6.7613763824800693E-2</v>
-      </c>
-      <c r="B68">
-        <v>13</v>
-      </c>
-      <c r="C68">
-        <v>6.7545672299943696E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>0.39628430480270838</v>
-      </c>
-      <c r="B69">
-        <v>13</v>
-      </c>
-      <c r="C69">
-        <v>0.39593264655271621</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>8.3065677238068361E-2</v>
-      </c>
-      <c r="B70">
-        <v>5</v>
-      </c>
-      <c r="C70">
-        <v>8.331674032582731E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>0.18777488575329293</v>
-      </c>
-      <c r="B71">
-        <v>15</v>
-      </c>
-      <c r="C71">
-        <v>0.18770759299819442</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>8.3028678689334945E-2</v>
-      </c>
-      <c r="B72">
-        <v>17</v>
-      </c>
-      <c r="C72">
-        <v>8.2910895755164082E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>0.20088488128700405</v>
-      </c>
-      <c r="B73">
-        <v>17</v>
-      </c>
-      <c r="C73">
-        <v>0.20068109989614052</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>0.1982422786351036</v>
-      </c>
-      <c r="B74">
-        <v>5</v>
-      </c>
-      <c r="C74">
-        <v>0.19804616197454439</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>7.8285825495745254E-2</v>
-      </c>
-      <c r="B75">
-        <v>19</v>
-      </c>
-      <c r="C75">
-        <v>7.8287102968197159E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>0.14057105850579837</v>
-      </c>
-      <c r="B76">
-        <v>17</v>
-      </c>
-      <c r="C76">
-        <v>0.13867178624434884</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>0.39495728258871682</v>
-      </c>
-      <c r="B77">
-        <v>8</v>
-      </c>
-      <c r="C77">
-        <v>0.39631104579797571</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>9.2776342997136135E-2</v>
-      </c>
-      <c r="B78">
-        <v>9</v>
-      </c>
-      <c r="C78">
-        <v>9.2736018891324976E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>0.14624039801198896</v>
-      </c>
-      <c r="B79">
-        <v>19</v>
-      </c>
-      <c r="C79">
-        <v>0.1462390486301807</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>5.7962018079829272E-2</v>
-      </c>
-      <c r="B80">
-        <v>18</v>
-      </c>
-      <c r="C80">
-        <v>5.8044531552115093E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>8.8084285477296367E-2</v>
-      </c>
-      <c r="B81">
-        <v>5</v>
-      </c>
-      <c r="C81">
-        <v>8.7583392619443659E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>0.26851839770487129</v>
-      </c>
-      <c r="B82">
-        <v>11</v>
-      </c>
-      <c r="C82">
-        <v>0.2622192748320073</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>0.15421059055865105</v>
-      </c>
-      <c r="B83">
-        <v>16</v>
-      </c>
-      <c r="C83">
-        <v>0.15469392260283046</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>0.12171936736964087</v>
-      </c>
-      <c r="B84">
-        <v>17</v>
-      </c>
-      <c r="C84">
-        <v>0.12181810349599365</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>6.2381448629117209E-2</v>
-      </c>
-      <c r="B85">
-        <v>19</v>
-      </c>
-      <c r="C85">
-        <v>6.2327511156399243E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>0.11790378642213063</v>
-      </c>
-      <c r="B86">
-        <v>19</v>
-      </c>
-      <c r="C86">
-        <v>0.118442504580395</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>3.9917966814843574E-2</v>
-      </c>
-      <c r="B87">
-        <v>12</v>
-      </c>
-      <c r="C87">
-        <v>3.9857435441513558E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>8.2075816184943459E-2</v>
-      </c>
-      <c r="B88">
-        <v>17</v>
-      </c>
-      <c r="C88">
-        <v>8.2574089729100089E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>0.13790666123843243</v>
-      </c>
-      <c r="B89">
-        <v>9</v>
-      </c>
-      <c r="C89">
-        <v>0.13778437776913005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>6.7068597919970441E-2</v>
-      </c>
-      <c r="B90">
-        <v>9</v>
-      </c>
-      <c r="C90">
-        <v>6.7062548886028653E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>0.10348229150213507</v>
-      </c>
-      <c r="B91">
-        <v>18</v>
-      </c>
-      <c r="C91">
-        <v>0.10352936100577674</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>8.3540655256065424E-2</v>
-      </c>
-      <c r="B92">
-        <v>17</v>
-      </c>
-      <c r="C92">
-        <v>8.3739995696757552E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>8.0461189345675824E-2</v>
-      </c>
-      <c r="B93">
-        <v>16</v>
-      </c>
-      <c r="C93">
-        <v>8.0667833133695271E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>0.12886612868415201</v>
-      </c>
-      <c r="B94">
-        <v>19</v>
-      </c>
-      <c r="C94">
-        <v>0.12882844555988301</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>0.3313229640675141</v>
-      </c>
-      <c r="B95">
-        <v>19</v>
-      </c>
-      <c r="C95">
-        <v>0.33191508379935275</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>9.3632296429941628E-2</v>
-      </c>
-      <c r="B96">
-        <v>18</v>
-      </c>
-      <c r="C96">
-        <v>9.3818859171177382E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>9.386879900519414E-2</v>
-      </c>
-      <c r="B97">
-        <v>13</v>
-      </c>
-      <c r="C97">
-        <v>9.4119894673740295E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>9.6906306338428769E-2</v>
-      </c>
-      <c r="B98">
-        <v>20</v>
-      </c>
-      <c r="C98">
-        <v>9.709514286413494E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>0.42320304023607297</v>
-      </c>
-      <c r="B99">
-        <v>8</v>
-      </c>
-      <c r="C99">
-        <v>0.42238065316266354</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>0.10464552315628473</v>
-      </c>
-      <c r="B100">
-        <v>5</v>
-      </c>
-      <c r="C100">
-        <v>0.10363405152955329</v>
       </c>
     </row>
   </sheetData>
@@ -16742,8 +15682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L145"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
